--- a/medicine/Sexualité et sexologie/Feu_de_glace/Feu_de_glace.xlsx
+++ b/medicine/Sexualité et sexologie/Feu_de_glace/Feu_de_glace.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Feu de glace (Killing Me Softly) est un film américano-britannique réalisé par Chen Kaige, sorti en 2002. 
 Il s'agit de l'adaptation cinématographique du roman éponyme de Nicci French, paru en 1999.
@@ -512,7 +524,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Alice Loudon mène une vie quelque peu ordinaire mais heureuse avec son compagnon Jake dans leur appartement londonien. Elle occupe le poste de designer de sites internet dans une société d'informatique. 
 Cependant, un jour, elle croise, en se rendant à son travail, un jeune homme dans la rue. Elle se sent aussitôt attirée par sa beauté et son aspect mystérieux. Alice se laisse emporter par son instinct et, sans même lui demander son nom, le suit jusqu'à son appartement où ils font l'amour sans retenue. Cet homme étrange se nomme Adam Tallis et a récemment sauvé la vie de plusieurs personnes lors d'une expédition en montagne. 
@@ -545,7 +559,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre original : Killing Me Softly
 Titre français : Feu de glace
@@ -566,7 +582,7 @@
 Format : couleur - 1,85 : 1 - son DTS / Dolby Digital /  SDDS
 Genre : Film dramatique, thriller
 Durée : 100 minutes
-Dates de sortie[1] :
+Dates de sortie :
 Japon : 23 février 2002 (première mondiale)
 France : 5 juin 2002
 Royaume-Uni : 21 juin 2002
@@ -599,14 +615,16 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Heather Graham (VF : Marie-Laure Dougnac) : Alice Loudon
 Joseph Fiennes (VF : Jean-Pierre Michaël) : Adam Tallis
 Natasha McElhone (VF : Déborah Perret) : Deborah Tallis
 Jason Hughes (VF : Emmanuel Gradi) : Jake
 Yasmin Bannerman (VF : Géraldine Asselin) : Joanna Nobel
- Source et légende : version française (VF) sur RS Doublage[2]</t>
+ Source et légende : version française (VF) sur RS Doublage</t>
         </is>
       </c>
     </row>
